--- a/biology/Zoologie/Goloboffia/Goloboffia.xlsx
+++ b/biology/Zoologie/Goloboffia/Goloboffia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goloboffia est un genre d'araignées mygalomorphes de la famille des Migidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goloboffia est un genre d'araignées mygalomorphes de la famille des Migidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Chili[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Chili.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 08/09/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 08/09/2022) :
 Goloboffia biberi Ferretti, Ríos-Tamayo &amp; Goloboff, 2019
 Goloboffia gonzalezi Montenegro &amp; Aguilera, 2022
 Goloboffia griswoldi Ferretti, Ríos-Tamayo &amp; Goloboff, 2019
@@ -578,7 +594,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Griswold et Ledford en 2001 dans les Migidae.
 </t>
@@ -609,9 +627,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est nommé en l'honneur de Pablo A. Goloboff[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est nommé en l'honneur de Pablo A. Goloboff.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Griswold &amp; Ledford, 2001 : A monograph of the migid trap door spiders of Madagascar and review of the world genera (Araneae, Mygalomorphae, Migidae). Occasional Papers California Academy of Sciences, no 151, p. 1-120 (texte intégral).</t>
         </is>
